--- a/DMD_Prototype/wwwroot/Common/Templates/ProblemLog.xlsx
+++ b/DMD_Prototype/wwwroot/Common/Templates/ProblemLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jtoledo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jtoledo\Desktop\Files\test\DMD_Prototype\DMD_Prototype\wwwroot\Common\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6695F6FD-7385-4953-86CC-68E5647FCEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C279832-AF69-4E83-B9C2-E00CCD66DD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E74FD662-C17C-49C1-A923-D69ED7C23731}"/>
   </bookViews>
@@ -1229,6 +1229,36 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,34 +1286,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,36 +1341,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2068,7 +2048,7 @@
   <dimension ref="A1:AG114"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,64 +2086,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141"/>
-      <c r="B1" s="142"/>
+      <c r="A1" s="151"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="58"/>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="145"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="155"/>
       <c r="AA1" s="34"/>
       <c r="AB1" s="9"/>
     </row>
     <row r="2" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="146"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="156"/>
       <c r="AA2" s="35"/>
       <c r="AB2" s="10"/>
     </row>
@@ -2178,23 +2158,23 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="148" t="s">
+      <c r="Q3" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="149"/>
+      <c r="R3" s="159"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
       <c r="U3" s="48"/>
-      <c r="V3" s="148" t="s">
+      <c r="V3" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="149"/>
+      <c r="W3" s="159"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="54"/>
       <c r="Z3" s="55" t="s">
@@ -2335,48 +2315,48 @@
       <c r="AB7" s="15"/>
     </row>
     <row r="8" spans="1:32" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153" t="s">
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="155" t="s">
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="156"/>
-      <c r="W8" s="156"/>
-      <c r="X8" s="156"/>
-      <c r="Y8" s="157" t="s">
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="147"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="147"/>
+      <c r="X8" s="147"/>
+      <c r="Y8" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="159"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="150"/>
       <c r="AF8" s="32"/>
     </row>
     <row r="9" spans="1:32" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="151"/>
+      <c r="A9" s="142"/>
       <c r="B9" s="88" t="s">
         <v>3</v>
       </c>
@@ -2525,13 +2505,13 @@
         <v/>
       </c>
       <c r="U11" s="27" t="str">
-        <f t="shared" ref="U10:U41" si="2">IF(Z11="CLOSE", "CLOSE", IF(R11="", "", "FOR VALIDATION"))</f>
+        <f t="shared" ref="U11:U41" si="2">IF(Z11="CLOSE", "CLOSE", IF(R11="", "", "FOR VALIDATION"))</f>
         <v/>
       </c>
       <c r="V11" s="115"/>
       <c r="W11" s="114"/>
       <c r="X11" s="27" t="str">
-        <f t="shared" ref="X10:X41" si="3">IF(AA11="CLOSE", "CLOSE", IF(W11="", "", "OPEN"))</f>
+        <f t="shared" ref="X11:X41" si="3">IF(AA11="CLOSE", "CLOSE", IF(W11="", "", "OPEN"))</f>
         <v/>
       </c>
       <c r="Y11" s="130"/>
@@ -2618,7 +2598,7 @@
       </c>
       <c r="V13" s="121"/>
       <c r="W13" s="114" t="str">
-        <f t="shared" ref="W10:W41" si="4">IF(ISBLANK(B13), "", DATE(YEAR(B13),MONTH(B13)+1,10))</f>
+        <f t="shared" ref="W13:W41" si="4">IF(ISBLANK(B13), "", DATE(YEAR(B13),MONTH(B13)+1,10))</f>
         <v/>
       </c>
       <c r="X13" s="27" t="str">
@@ -2650,7 +2630,7 @@
       <c r="P14" s="121"/>
       <c r="Q14" s="121"/>
       <c r="R14" s="114" t="str">
-        <f t="shared" ref="R11:R41" si="5">IF(ISBLANK(B14),"",IF(N14="High Importance - Urgent (A)",WORKDAY.INTL(B14,1),IF(N14="High Importance - Urgent (B)",WORKDAY.INTL(B14,2),IF(N14="High Importance - Not Urgent",WORKDAY.INTL(B14,5), ""))))</f>
+        <f t="shared" ref="R14:R41" si="5">IF(ISBLANK(B14),"",IF(N14="High Importance - Urgent (A)",WORKDAY.INTL(B14,1),IF(N14="High Importance - Urgent (B)",WORKDAY.INTL(B14,2),IF(N14="High Importance - Not Urgent",WORKDAY.INTL(B14,5), ""))))</f>
         <v/>
       </c>
       <c r="S14" s="113"/>
@@ -6988,16 +6968,16 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="10">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:Z2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="V3:W3"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="N8:X8"/>
     <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:Z2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="V3:W3"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U114:U1048576 X71:X1048576 Z10:AA10 Z11:Z1048576 AA12 X9 U9" xr:uid="{13E526DE-E3B3-4322-AA27-14091D2CCB4C}">
@@ -7069,60 +7049,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141"/>
-      <c r="B1" s="142"/>
+      <c r="A1" s="151"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="58"/>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="145"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="155"/>
       <c r="Y1" s="34"/>
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="146"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="156"/>
       <c r="Y2" s="35"/>
       <c r="Z2" s="10"/>
     </row>
@@ -7137,21 +7117,21 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="148" t="s">
+      <c r="Q3" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="149"/>
+      <c r="R3" s="159"/>
       <c r="S3" s="48"/>
-      <c r="T3" s="148" t="s">
+      <c r="T3" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="149"/>
+      <c r="U3" s="159"/>
       <c r="V3" s="11"/>
       <c r="W3" s="54"/>
       <c r="X3" s="55" t="s">
@@ -7284,46 +7264,46 @@
       <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:30" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153" t="s">
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="155" t="s">
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="156"/>
-      <c r="W8" s="157" t="s">
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="147"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="159"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="150"/>
       <c r="AD8" s="32"/>
     </row>
     <row r="9" spans="1:30" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="151"/>
+      <c r="A9" s="142"/>
       <c r="B9" s="88" t="s">
         <v>3</v>
       </c>
@@ -10057,32 +10037,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="172" t="s">
+      <c r="A1" s="151"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="170"/>
     </row>
     <row r="2" spans="1:15" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="143"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="171"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="172"/>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
@@ -10129,26 +10109,26 @@
       <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="165" t="s">
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="166"/>
-      <c r="K7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="168"/>
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="161"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="40" t="s">
         <v>3</v>
       </c>
@@ -10181,1989 +10161,1989 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="176"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
     </row>
     <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="177"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="176"/>
       <c r="O10" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="177"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
       <c r="O11" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="177"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
       <c r="O12" s="21"/>
     </row>
     <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="177"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
+      <c r="A13" s="178"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
       <c r="O13" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="178"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
       <c r="O14" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="178"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
       <c r="O15" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
       <c r="O16" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="178"/>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="160"/>
       <c r="O17" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="178"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
       <c r="O18" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="178"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
       <c r="O19" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
       <c r="O20" s="21"/>
     </row>
     <row r="21" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="178"/>
-      <c r="B21" s="178"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
       <c r="O21" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="178"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="160"/>
       <c r="O22" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="178"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
       <c r="O23" s="21"/>
     </row>
     <row r="24" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="178"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
+      <c r="A24" s="160"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="160"/>
       <c r="O24" s="21"/>
     </row>
     <row r="25" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="178"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
       <c r="O25" s="21"/>
     </row>
     <row r="26" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="178"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
       <c r="O26" s="21"/>
     </row>
     <row r="27" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="178"/>
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
       <c r="O27" s="21"/>
     </row>
     <row r="28" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="178"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
       <c r="O28" s="21"/>
     </row>
     <row r="29" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="178"/>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
       <c r="O29" s="21"/>
     </row>
     <row r="30" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="178"/>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
       <c r="O30" s="21"/>
     </row>
     <row r="31" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="178"/>
-      <c r="B31" s="178"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
       <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="178"/>
-      <c r="B32" s="178"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
+      <c r="A32" s="160"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
       <c r="O32" s="21"/>
     </row>
     <row r="33" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="178"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="160"/>
       <c r="O33" s="21"/>
     </row>
     <row r="34" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="178"/>
-      <c r="B34" s="178"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
+      <c r="A34" s="160"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
       <c r="O34" s="21"/>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="178"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="178"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="178"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
       <c r="O35" s="21"/>
     </row>
     <row r="36" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="178"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="178"/>
+      <c r="A36" s="160"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="160"/>
       <c r="O36" s="21"/>
     </row>
     <row r="37" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="178"/>
-      <c r="B37" s="178"/>
-      <c r="C37" s="178"/>
-      <c r="D37" s="178"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="178"/>
-      <c r="K37" s="178"/>
+      <c r="A37" s="160"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="160"/>
       <c r="O37" s="21"/>
     </row>
     <row r="38" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="178"/>
-      <c r="B38" s="178"/>
-      <c r="C38" s="178"/>
-      <c r="D38" s="178"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="178"/>
-      <c r="K38" s="178"/>
+      <c r="A38" s="160"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="160"/>
       <c r="O38" s="21"/>
     </row>
     <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="178"/>
-      <c r="B39" s="178"/>
-      <c r="C39" s="178"/>
-      <c r="D39" s="178"/>
-      <c r="E39" s="178"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="178"/>
-      <c r="K39" s="178"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
+      <c r="K39" s="160"/>
       <c r="O39" s="21"/>
     </row>
     <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="178"/>
-      <c r="B40" s="178"/>
-      <c r="C40" s="178"/>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="178"/>
-      <c r="K40" s="178"/>
+      <c r="A40" s="160"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
+      <c r="K40" s="160"/>
       <c r="O40" s="21"/>
     </row>
     <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="178"/>
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="178"/>
-      <c r="H41" s="178"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="178"/>
-      <c r="K41" s="178"/>
+      <c r="A41" s="160"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
+      <c r="K41" s="160"/>
       <c r="O41" s="21"/>
     </row>
     <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="178"/>
-      <c r="B42" s="178"/>
-      <c r="C42" s="178"/>
-      <c r="D42" s="178"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="178"/>
-      <c r="K42" s="178"/>
+      <c r="A42" s="160"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
+      <c r="K42" s="160"/>
       <c r="O42" s="21"/>
     </row>
     <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="178"/>
-      <c r="B43" s="178"/>
-      <c r="C43" s="178"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="178"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
       <c r="O43" s="21"/>
     </row>
     <row r="44" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="178"/>
-      <c r="B44" s="178"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="178"/>
-      <c r="K44" s="178"/>
+      <c r="A44" s="160"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
+      <c r="K44" s="160"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="178"/>
-      <c r="K45" s="178"/>
+      <c r="A45" s="160"/>
+      <c r="B45" s="160"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="160"/>
+      <c r="E45" s="160"/>
+      <c r="F45" s="160"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="160"/>
+      <c r="K45" s="160"/>
       <c r="O45" s="21"/>
     </row>
     <row r="46" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="178"/>
-      <c r="B46" s="178"/>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="178"/>
-      <c r="K46" s="178"/>
+      <c r="A46" s="160"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
+      <c r="K46" s="160"/>
       <c r="O46" s="21"/>
     </row>
     <row r="47" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="178"/>
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="178"/>
-      <c r="K47" s="178"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
+      <c r="K47" s="160"/>
       <c r="O47" s="21"/>
     </row>
     <row r="48" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="178"/>
-      <c r="B48" s="178"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="178"/>
-      <c r="K48" s="178"/>
+      <c r="A48" s="160"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
+      <c r="K48" s="160"/>
       <c r="O48" s="21"/>
     </row>
     <row r="49" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="178"/>
-      <c r="B49" s="178"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="178"/>
-      <c r="E49" s="178"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178"/>
-      <c r="J49" s="178"/>
-      <c r="K49" s="178"/>
+      <c r="A49" s="160"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="160"/>
       <c r="O49" s="21"/>
     </row>
     <row r="50" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="178"/>
-      <c r="B50" s="178"/>
-      <c r="C50" s="178"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="178"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="178"/>
-      <c r="K50" s="178"/>
+      <c r="A50" s="160"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
+      <c r="K50" s="160"/>
       <c r="O50" s="21"/>
     </row>
     <row r="51" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="178"/>
-      <c r="B51" s="178"/>
-      <c r="C51" s="178"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="178"/>
-      <c r="G51" s="178"/>
-      <c r="H51" s="178"/>
-      <c r="I51" s="178"/>
-      <c r="J51" s="178"/>
-      <c r="K51" s="178"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="160"/>
       <c r="O51" s="21"/>
     </row>
     <row r="52" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="178"/>
-      <c r="B52" s="178"/>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="178"/>
-      <c r="K52" s="178"/>
+      <c r="A52" s="160"/>
+      <c r="B52" s="160"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="160"/>
       <c r="O52" s="21"/>
     </row>
     <row r="53" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="178"/>
-      <c r="B53" s="178"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="178"/>
+      <c r="A53" s="160"/>
+      <c r="B53" s="160"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="160"/>
+      <c r="I53" s="160"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="160"/>
       <c r="O53" s="21"/>
     </row>
     <row r="54" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="178"/>
-      <c r="B54" s="178"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="178"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="160"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="160"/>
       <c r="O54" s="21"/>
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="178"/>
-      <c r="B55" s="178"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="178"/>
-      <c r="K55" s="178"/>
+      <c r="A55" s="160"/>
+      <c r="B55" s="160"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="160"/>
       <c r="O55" s="21"/>
     </row>
     <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="178"/>
-      <c r="B56" s="178"/>
-      <c r="C56" s="178"/>
-      <c r="D56" s="178"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
-      <c r="I56" s="178"/>
-      <c r="J56" s="178"/>
-      <c r="K56" s="178"/>
+      <c r="A56" s="160"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="160"/>
       <c r="O56" s="21"/>
     </row>
     <row r="57" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="178"/>
-      <c r="B57" s="178"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="178"/>
-      <c r="J57" s="178"/>
-      <c r="K57" s="178"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="160"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="160"/>
+      <c r="G57" s="160"/>
+      <c r="H57" s="160"/>
+      <c r="I57" s="160"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="160"/>
       <c r="O57" s="21"/>
     </row>
     <row r="58" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="178"/>
-      <c r="B58" s="178"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="178"/>
-      <c r="E58" s="178"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
-      <c r="I58" s="178"/>
-      <c r="J58" s="178"/>
-      <c r="K58" s="178"/>
+      <c r="A58" s="160"/>
+      <c r="B58" s="160"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="160"/>
+      <c r="G58" s="160"/>
+      <c r="H58" s="160"/>
+      <c r="I58" s="160"/>
+      <c r="J58" s="160"/>
+      <c r="K58" s="160"/>
       <c r="O58" s="21"/>
     </row>
     <row r="59" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="178"/>
-      <c r="B59" s="178"/>
-      <c r="C59" s="178"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="178"/>
-      <c r="H59" s="178"/>
-      <c r="I59" s="178"/>
-      <c r="J59" s="178"/>
-      <c r="K59" s="178"/>
+      <c r="A59" s="160"/>
+      <c r="B59" s="160"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="160"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="160"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="160"/>
       <c r="O59" s="21"/>
     </row>
     <row r="60" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="178"/>
-      <c r="B60" s="178"/>
-      <c r="C60" s="178"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="178"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="178"/>
-      <c r="H60" s="178"/>
-      <c r="I60" s="178"/>
-      <c r="J60" s="178"/>
-      <c r="K60" s="178"/>
+      <c r="A60" s="160"/>
+      <c r="B60" s="160"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="160"/>
+      <c r="F60" s="160"/>
+      <c r="G60" s="160"/>
+      <c r="H60" s="160"/>
+      <c r="I60" s="160"/>
+      <c r="J60" s="160"/>
+      <c r="K60" s="160"/>
       <c r="O60" s="21"/>
     </row>
     <row r="61" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="178"/>
-      <c r="B61" s="178"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="178"/>
-      <c r="H61" s="178"/>
-      <c r="I61" s="178"/>
-      <c r="J61" s="178"/>
-      <c r="K61" s="178"/>
+      <c r="A61" s="160"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="160"/>
+      <c r="F61" s="160"/>
+      <c r="G61" s="160"/>
+      <c r="H61" s="160"/>
+      <c r="I61" s="160"/>
+      <c r="J61" s="160"/>
+      <c r="K61" s="160"/>
       <c r="O61" s="21"/>
     </row>
     <row r="62" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="178"/>
-      <c r="B62" s="178"/>
-      <c r="C62" s="178"/>
-      <c r="D62" s="178"/>
-      <c r="E62" s="178"/>
-      <c r="F62" s="178"/>
-      <c r="G62" s="178"/>
-      <c r="H62" s="178"/>
-      <c r="I62" s="178"/>
-      <c r="J62" s="178"/>
-      <c r="K62" s="178"/>
+      <c r="A62" s="160"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="160"/>
+      <c r="J62" s="160"/>
+      <c r="K62" s="160"/>
       <c r="O62" s="21"/>
     </row>
     <row r="63" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="178"/>
-      <c r="B63" s="178"/>
-      <c r="C63" s="178"/>
-      <c r="D63" s="178"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="178"/>
-      <c r="G63" s="178"/>
-      <c r="H63" s="178"/>
-      <c r="I63" s="178"/>
-      <c r="J63" s="178"/>
-      <c r="K63" s="178"/>
+      <c r="A63" s="160"/>
+      <c r="B63" s="160"/>
+      <c r="C63" s="160"/>
+      <c r="D63" s="160"/>
+      <c r="E63" s="160"/>
+      <c r="F63" s="160"/>
+      <c r="G63" s="160"/>
+      <c r="H63" s="160"/>
+      <c r="I63" s="160"/>
+      <c r="J63" s="160"/>
+      <c r="K63" s="160"/>
       <c r="O63" s="21"/>
     </row>
     <row r="64" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="178"/>
-      <c r="B64" s="178"/>
-      <c r="C64" s="178"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="178"/>
-      <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="178"/>
-      <c r="J64" s="178"/>
-      <c r="K64" s="178"/>
+      <c r="A64" s="160"/>
+      <c r="B64" s="160"/>
+      <c r="C64" s="160"/>
+      <c r="D64" s="160"/>
+      <c r="E64" s="160"/>
+      <c r="F64" s="160"/>
+      <c r="G64" s="160"/>
+      <c r="H64" s="160"/>
+      <c r="I64" s="160"/>
+      <c r="J64" s="160"/>
+      <c r="K64" s="160"/>
       <c r="O64" s="21"/>
     </row>
     <row r="65" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="178"/>
-      <c r="B65" s="178"/>
-      <c r="C65" s="178"/>
-      <c r="D65" s="178"/>
-      <c r="E65" s="178"/>
-      <c r="F65" s="178"/>
-      <c r="G65" s="178"/>
-      <c r="H65" s="178"/>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
-      <c r="K65" s="178"/>
+      <c r="A65" s="160"/>
+      <c r="B65" s="160"/>
+      <c r="C65" s="160"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="160"/>
+      <c r="F65" s="160"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="160"/>
+      <c r="I65" s="160"/>
+      <c r="J65" s="160"/>
+      <c r="K65" s="160"/>
       <c r="O65" s="21"/>
     </row>
     <row r="66" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="178"/>
-      <c r="B66" s="178"/>
-      <c r="C66" s="178"/>
-      <c r="D66" s="178"/>
-      <c r="E66" s="178"/>
-      <c r="F66" s="178"/>
-      <c r="G66" s="178"/>
-      <c r="H66" s="178"/>
-      <c r="I66" s="178"/>
-      <c r="J66" s="178"/>
-      <c r="K66" s="178"/>
+      <c r="A66" s="160"/>
+      <c r="B66" s="160"/>
+      <c r="C66" s="160"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="160"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="160"/>
+      <c r="I66" s="160"/>
+      <c r="J66" s="160"/>
+      <c r="K66" s="160"/>
       <c r="O66" s="21"/>
     </row>
     <row r="67" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="178"/>
-      <c r="B67" s="178"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="178"/>
-      <c r="J67" s="178"/>
-      <c r="K67" s="178"/>
+      <c r="A67" s="160"/>
+      <c r="B67" s="160"/>
+      <c r="C67" s="160"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="160"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="160"/>
+      <c r="K67" s="160"/>
       <c r="O67" s="21"/>
     </row>
     <row r="68" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="178"/>
-      <c r="B68" s="178"/>
-      <c r="C68" s="178"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="178"/>
-      <c r="J68" s="178"/>
-      <c r="K68" s="178"/>
+      <c r="A68" s="160"/>
+      <c r="B68" s="160"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="160"/>
+      <c r="G68" s="160"/>
+      <c r="H68" s="160"/>
+      <c r="I68" s="160"/>
+      <c r="J68" s="160"/>
+      <c r="K68" s="160"/>
       <c r="O68" s="21"/>
     </row>
     <row r="69" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="178"/>
-      <c r="B69" s="178"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="178"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="178"/>
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="178"/>
-      <c r="J69" s="178"/>
-      <c r="K69" s="178"/>
+      <c r="A69" s="160"/>
+      <c r="B69" s="160"/>
+      <c r="C69" s="160"/>
+      <c r="D69" s="160"/>
+      <c r="E69" s="160"/>
+      <c r="F69" s="160"/>
+      <c r="G69" s="160"/>
+      <c r="H69" s="160"/>
+      <c r="I69" s="160"/>
+      <c r="J69" s="160"/>
+      <c r="K69" s="160"/>
       <c r="O69" s="21"/>
     </row>
     <row r="70" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="178"/>
-      <c r="B70" s="178"/>
-      <c r="C70" s="178"/>
-      <c r="D70" s="178"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="178"/>
-      <c r="G70" s="178"/>
-      <c r="H70" s="178"/>
-      <c r="I70" s="178"/>
-      <c r="J70" s="178"/>
-      <c r="K70" s="178"/>
+      <c r="A70" s="160"/>
+      <c r="B70" s="160"/>
+      <c r="C70" s="160"/>
+      <c r="D70" s="160"/>
+      <c r="E70" s="160"/>
+      <c r="F70" s="160"/>
+      <c r="G70" s="160"/>
+      <c r="H70" s="160"/>
+      <c r="I70" s="160"/>
+      <c r="J70" s="160"/>
+      <c r="K70" s="160"/>
       <c r="O70" s="21"/>
     </row>
     <row r="71" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="178"/>
-      <c r="B71" s="178"/>
-      <c r="C71" s="178"/>
-      <c r="D71" s="178"/>
-      <c r="E71" s="178"/>
-      <c r="F71" s="178"/>
-      <c r="G71" s="178"/>
-      <c r="H71" s="178"/>
-      <c r="I71" s="178"/>
-      <c r="J71" s="178"/>
-      <c r="K71" s="178"/>
+      <c r="A71" s="160"/>
+      <c r="B71" s="160"/>
+      <c r="C71" s="160"/>
+      <c r="D71" s="160"/>
+      <c r="E71" s="160"/>
+      <c r="F71" s="160"/>
+      <c r="G71" s="160"/>
+      <c r="H71" s="160"/>
+      <c r="I71" s="160"/>
+      <c r="J71" s="160"/>
+      <c r="K71" s="160"/>
       <c r="O71" s="21"/>
     </row>
     <row r="72" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="178"/>
-      <c r="B72" s="178"/>
-      <c r="C72" s="178"/>
-      <c r="D72" s="178"/>
-      <c r="E72" s="178"/>
-      <c r="F72" s="178"/>
-      <c r="G72" s="178"/>
-      <c r="H72" s="178"/>
-      <c r="I72" s="178"/>
-      <c r="J72" s="178"/>
-      <c r="K72" s="178"/>
+      <c r="A72" s="160"/>
+      <c r="B72" s="160"/>
+      <c r="C72" s="160"/>
+      <c r="D72" s="160"/>
+      <c r="E72" s="160"/>
+      <c r="F72" s="160"/>
+      <c r="G72" s="160"/>
+      <c r="H72" s="160"/>
+      <c r="I72" s="160"/>
+      <c r="J72" s="160"/>
+      <c r="K72" s="160"/>
       <c r="O72" s="21"/>
     </row>
     <row r="73" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="178"/>
-      <c r="B73" s="178"/>
-      <c r="C73" s="178"/>
-      <c r="D73" s="178"/>
-      <c r="E73" s="178"/>
-      <c r="F73" s="178"/>
-      <c r="G73" s="178"/>
-      <c r="H73" s="178"/>
-      <c r="I73" s="178"/>
-      <c r="J73" s="178"/>
-      <c r="K73" s="178"/>
+      <c r="A73" s="160"/>
+      <c r="B73" s="160"/>
+      <c r="C73" s="160"/>
+      <c r="D73" s="160"/>
+      <c r="E73" s="160"/>
+      <c r="F73" s="160"/>
+      <c r="G73" s="160"/>
+      <c r="H73" s="160"/>
+      <c r="I73" s="160"/>
+      <c r="J73" s="160"/>
+      <c r="K73" s="160"/>
       <c r="O73" s="21"/>
     </row>
     <row r="74" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="178"/>
-      <c r="B74" s="178"/>
-      <c r="C74" s="178"/>
-      <c r="D74" s="178"/>
-      <c r="E74" s="178"/>
-      <c r="F74" s="178"/>
-      <c r="G74" s="178"/>
-      <c r="H74" s="178"/>
-      <c r="I74" s="178"/>
-      <c r="J74" s="178"/>
-      <c r="K74" s="178"/>
+      <c r="A74" s="160"/>
+      <c r="B74" s="160"/>
+      <c r="C74" s="160"/>
+      <c r="D74" s="160"/>
+      <c r="E74" s="160"/>
+      <c r="F74" s="160"/>
+      <c r="G74" s="160"/>
+      <c r="H74" s="160"/>
+      <c r="I74" s="160"/>
+      <c r="J74" s="160"/>
+      <c r="K74" s="160"/>
       <c r="O74" s="21"/>
     </row>
     <row r="75" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="178"/>
-      <c r="B75" s="178"/>
-      <c r="C75" s="178"/>
-      <c r="D75" s="178"/>
-      <c r="E75" s="178"/>
-      <c r="F75" s="178"/>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="178"/>
-      <c r="J75" s="178"/>
-      <c r="K75" s="178"/>
+      <c r="A75" s="160"/>
+      <c r="B75" s="160"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="160"/>
+      <c r="E75" s="160"/>
+      <c r="F75" s="160"/>
+      <c r="G75" s="160"/>
+      <c r="H75" s="160"/>
+      <c r="I75" s="160"/>
+      <c r="J75" s="160"/>
+      <c r="K75" s="160"/>
       <c r="O75" s="21"/>
     </row>
     <row r="76" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="178"/>
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
-      <c r="J76" s="178"/>
-      <c r="K76" s="178"/>
+      <c r="A76" s="160"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="160"/>
+      <c r="I76" s="160"/>
+      <c r="J76" s="160"/>
+      <c r="K76" s="160"/>
       <c r="O76" s="21"/>
     </row>
     <row r="77" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="178"/>
-      <c r="B77" s="178"/>
-      <c r="C77" s="178"/>
-      <c r="D77" s="178"/>
-      <c r="E77" s="178"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
-      <c r="K77" s="178"/>
+      <c r="A77" s="160"/>
+      <c r="B77" s="160"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="160"/>
+      <c r="E77" s="160"/>
+      <c r="F77" s="160"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="160"/>
+      <c r="I77" s="160"/>
+      <c r="J77" s="160"/>
+      <c r="K77" s="160"/>
       <c r="O77" s="21"/>
     </row>
     <row r="78" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="178"/>
-      <c r="B78" s="178"/>
-      <c r="C78" s="178"/>
-      <c r="D78" s="178"/>
-      <c r="E78" s="178"/>
-      <c r="F78" s="178"/>
-      <c r="G78" s="178"/>
-      <c r="H78" s="178"/>
-      <c r="I78" s="178"/>
-      <c r="J78" s="178"/>
-      <c r="K78" s="178"/>
+      <c r="A78" s="160"/>
+      <c r="B78" s="160"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="160"/>
+      <c r="E78" s="160"/>
+      <c r="F78" s="160"/>
+      <c r="G78" s="160"/>
+      <c r="H78" s="160"/>
+      <c r="I78" s="160"/>
+      <c r="J78" s="160"/>
+      <c r="K78" s="160"/>
       <c r="O78" s="21"/>
     </row>
     <row r="79" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="178"/>
-      <c r="B79" s="178"/>
-      <c r="C79" s="178"/>
-      <c r="D79" s="178"/>
-      <c r="E79" s="178"/>
-      <c r="F79" s="178"/>
-      <c r="G79" s="178"/>
-      <c r="H79" s="178"/>
-      <c r="I79" s="178"/>
-      <c r="J79" s="178"/>
-      <c r="K79" s="178"/>
+      <c r="A79" s="160"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="160"/>
+      <c r="D79" s="160"/>
+      <c r="E79" s="160"/>
+      <c r="F79" s="160"/>
+      <c r="G79" s="160"/>
+      <c r="H79" s="160"/>
+      <c r="I79" s="160"/>
+      <c r="J79" s="160"/>
+      <c r="K79" s="160"/>
       <c r="O79" s="21"/>
     </row>
     <row r="80" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="178"/>
-      <c r="B80" s="178"/>
-      <c r="C80" s="178"/>
-      <c r="D80" s="178"/>
-      <c r="E80" s="178"/>
-      <c r="F80" s="178"/>
-      <c r="G80" s="178"/>
-      <c r="H80" s="178"/>
-      <c r="I80" s="178"/>
-      <c r="J80" s="178"/>
-      <c r="K80" s="178"/>
+      <c r="A80" s="160"/>
+      <c r="B80" s="160"/>
+      <c r="C80" s="160"/>
+      <c r="D80" s="160"/>
+      <c r="E80" s="160"/>
+      <c r="F80" s="160"/>
+      <c r="G80" s="160"/>
+      <c r="H80" s="160"/>
+      <c r="I80" s="160"/>
+      <c r="J80" s="160"/>
+      <c r="K80" s="160"/>
       <c r="O80" s="21"/>
     </row>
     <row r="81" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="178"/>
-      <c r="B81" s="178"/>
-      <c r="C81" s="178"/>
-      <c r="D81" s="178"/>
-      <c r="E81" s="178"/>
-      <c r="F81" s="178"/>
-      <c r="G81" s="178"/>
-      <c r="H81" s="178"/>
-      <c r="I81" s="178"/>
-      <c r="J81" s="178"/>
-      <c r="K81" s="178"/>
+      <c r="A81" s="160"/>
+      <c r="B81" s="160"/>
+      <c r="C81" s="160"/>
+      <c r="D81" s="160"/>
+      <c r="E81" s="160"/>
+      <c r="F81" s="160"/>
+      <c r="G81" s="160"/>
+      <c r="H81" s="160"/>
+      <c r="I81" s="160"/>
+      <c r="J81" s="160"/>
+      <c r="K81" s="160"/>
       <c r="O81" s="21"/>
     </row>
     <row r="82" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="178"/>
-      <c r="B82" s="178"/>
-      <c r="C82" s="178"/>
-      <c r="D82" s="178"/>
-      <c r="E82" s="178"/>
-      <c r="F82" s="178"/>
-      <c r="G82" s="178"/>
-      <c r="H82" s="178"/>
-      <c r="I82" s="178"/>
-      <c r="J82" s="178"/>
-      <c r="K82" s="178"/>
+      <c r="A82" s="160"/>
+      <c r="B82" s="160"/>
+      <c r="C82" s="160"/>
+      <c r="D82" s="160"/>
+      <c r="E82" s="160"/>
+      <c r="F82" s="160"/>
+      <c r="G82" s="160"/>
+      <c r="H82" s="160"/>
+      <c r="I82" s="160"/>
+      <c r="J82" s="160"/>
+      <c r="K82" s="160"/>
       <c r="O82" s="21"/>
     </row>
     <row r="83" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="178"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="178"/>
-      <c r="D83" s="178"/>
-      <c r="E83" s="178"/>
-      <c r="F83" s="178"/>
-      <c r="G83" s="178"/>
-      <c r="H83" s="178"/>
-      <c r="I83" s="178"/>
-      <c r="J83" s="178"/>
-      <c r="K83" s="178"/>
+      <c r="A83" s="160"/>
+      <c r="B83" s="160"/>
+      <c r="C83" s="160"/>
+      <c r="D83" s="160"/>
+      <c r="E83" s="160"/>
+      <c r="F83" s="160"/>
+      <c r="G83" s="160"/>
+      <c r="H83" s="160"/>
+      <c r="I83" s="160"/>
+      <c r="J83" s="160"/>
+      <c r="K83" s="160"/>
       <c r="O83" s="21"/>
     </row>
     <row r="84" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="178"/>
-      <c r="B84" s="178"/>
-      <c r="C84" s="178"/>
-      <c r="D84" s="178"/>
-      <c r="E84" s="178"/>
-      <c r="F84" s="178"/>
-      <c r="G84" s="178"/>
-      <c r="H84" s="178"/>
-      <c r="I84" s="178"/>
-      <c r="J84" s="178"/>
-      <c r="K84" s="178"/>
+      <c r="A84" s="160"/>
+      <c r="B84" s="160"/>
+      <c r="C84" s="160"/>
+      <c r="D84" s="160"/>
+      <c r="E84" s="160"/>
+      <c r="F84" s="160"/>
+      <c r="G84" s="160"/>
+      <c r="H84" s="160"/>
+      <c r="I84" s="160"/>
+      <c r="J84" s="160"/>
+      <c r="K84" s="160"/>
       <c r="O84" s="21"/>
     </row>
     <row r="85" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="178"/>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="178"/>
-      <c r="F85" s="178"/>
-      <c r="G85" s="178"/>
-      <c r="H85" s="178"/>
-      <c r="I85" s="178"/>
-      <c r="J85" s="178"/>
-      <c r="K85" s="178"/>
+      <c r="A85" s="160"/>
+      <c r="B85" s="160"/>
+      <c r="C85" s="160"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="160"/>
+      <c r="G85" s="160"/>
+      <c r="H85" s="160"/>
+      <c r="I85" s="160"/>
+      <c r="J85" s="160"/>
+      <c r="K85" s="160"/>
       <c r="O85" s="21"/>
     </row>
     <row r="86" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="178"/>
-      <c r="B86" s="178"/>
-      <c r="C86" s="178"/>
-      <c r="D86" s="178"/>
-      <c r="E86" s="178"/>
-      <c r="F86" s="178"/>
-      <c r="G86" s="178"/>
-      <c r="H86" s="178"/>
-      <c r="I86" s="178"/>
-      <c r="J86" s="178"/>
-      <c r="K86" s="178"/>
+      <c r="A86" s="160"/>
+      <c r="B86" s="160"/>
+      <c r="C86" s="160"/>
+      <c r="D86" s="160"/>
+      <c r="E86" s="160"/>
+      <c r="F86" s="160"/>
+      <c r="G86" s="160"/>
+      <c r="H86" s="160"/>
+      <c r="I86" s="160"/>
+      <c r="J86" s="160"/>
+      <c r="K86" s="160"/>
       <c r="O86" s="21"/>
     </row>
     <row r="87" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="178"/>
-      <c r="B87" s="178"/>
-      <c r="C87" s="178"/>
-      <c r="D87" s="178"/>
-      <c r="E87" s="178"/>
-      <c r="F87" s="178"/>
-      <c r="G87" s="178"/>
-      <c r="H87" s="178"/>
-      <c r="I87" s="178"/>
-      <c r="J87" s="178"/>
-      <c r="K87" s="178"/>
+      <c r="A87" s="160"/>
+      <c r="B87" s="160"/>
+      <c r="C87" s="160"/>
+      <c r="D87" s="160"/>
+      <c r="E87" s="160"/>
+      <c r="F87" s="160"/>
+      <c r="G87" s="160"/>
+      <c r="H87" s="160"/>
+      <c r="I87" s="160"/>
+      <c r="J87" s="160"/>
+      <c r="K87" s="160"/>
       <c r="O87" s="21"/>
     </row>
     <row r="88" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="178"/>
-      <c r="B88" s="178"/>
-      <c r="C88" s="178"/>
-      <c r="D88" s="178"/>
-      <c r="E88" s="178"/>
-      <c r="F88" s="178"/>
-      <c r="G88" s="178"/>
-      <c r="H88" s="178"/>
-      <c r="I88" s="178"/>
-      <c r="J88" s="178"/>
-      <c r="K88" s="178"/>
+      <c r="A88" s="160"/>
+      <c r="B88" s="160"/>
+      <c r="C88" s="160"/>
+      <c r="D88" s="160"/>
+      <c r="E88" s="160"/>
+      <c r="F88" s="160"/>
+      <c r="G88" s="160"/>
+      <c r="H88" s="160"/>
+      <c r="I88" s="160"/>
+      <c r="J88" s="160"/>
+      <c r="K88" s="160"/>
       <c r="O88" s="21"/>
     </row>
     <row r="89" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="178"/>
-      <c r="B89" s="178"/>
-      <c r="C89" s="178"/>
-      <c r="D89" s="178"/>
-      <c r="E89" s="178"/>
-      <c r="F89" s="178"/>
-      <c r="G89" s="178"/>
-      <c r="H89" s="178"/>
-      <c r="I89" s="178"/>
-      <c r="J89" s="178"/>
-      <c r="K89" s="178"/>
+      <c r="A89" s="160"/>
+      <c r="B89" s="160"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="160"/>
+      <c r="E89" s="160"/>
+      <c r="F89" s="160"/>
+      <c r="G89" s="160"/>
+      <c r="H89" s="160"/>
+      <c r="I89" s="160"/>
+      <c r="J89" s="160"/>
+      <c r="K89" s="160"/>
       <c r="O89" s="21"/>
     </row>
     <row r="90" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="178"/>
-      <c r="B90" s="178"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
-      <c r="E90" s="178"/>
-      <c r="F90" s="178"/>
-      <c r="G90" s="178"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="178"/>
-      <c r="J90" s="178"/>
-      <c r="K90" s="178"/>
+      <c r="A90" s="160"/>
+      <c r="B90" s="160"/>
+      <c r="C90" s="160"/>
+      <c r="D90" s="160"/>
+      <c r="E90" s="160"/>
+      <c r="F90" s="160"/>
+      <c r="G90" s="160"/>
+      <c r="H90" s="160"/>
+      <c r="I90" s="160"/>
+      <c r="J90" s="160"/>
+      <c r="K90" s="160"/>
       <c r="O90" s="21"/>
     </row>
     <row r="91" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="178"/>
-      <c r="B91" s="178"/>
-      <c r="C91" s="178"/>
-      <c r="D91" s="178"/>
-      <c r="E91" s="178"/>
-      <c r="F91" s="178"/>
-      <c r="G91" s="178"/>
-      <c r="H91" s="178"/>
-      <c r="I91" s="178"/>
-      <c r="J91" s="178"/>
-      <c r="K91" s="178"/>
+      <c r="A91" s="160"/>
+      <c r="B91" s="160"/>
+      <c r="C91" s="160"/>
+      <c r="D91" s="160"/>
+      <c r="E91" s="160"/>
+      <c r="F91" s="160"/>
+      <c r="G91" s="160"/>
+      <c r="H91" s="160"/>
+      <c r="I91" s="160"/>
+      <c r="J91" s="160"/>
+      <c r="K91" s="160"/>
       <c r="O91" s="21"/>
     </row>
     <row r="92" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="178"/>
-      <c r="B92" s="178"/>
-      <c r="C92" s="178"/>
-      <c r="D92" s="178"/>
-      <c r="E92" s="178"/>
-      <c r="F92" s="178"/>
-      <c r="G92" s="178"/>
-      <c r="H92" s="178"/>
-      <c r="I92" s="178"/>
-      <c r="J92" s="178"/>
-      <c r="K92" s="178"/>
+      <c r="A92" s="160"/>
+      <c r="B92" s="160"/>
+      <c r="C92" s="160"/>
+      <c r="D92" s="160"/>
+      <c r="E92" s="160"/>
+      <c r="F92" s="160"/>
+      <c r="G92" s="160"/>
+      <c r="H92" s="160"/>
+      <c r="I92" s="160"/>
+      <c r="J92" s="160"/>
+      <c r="K92" s="160"/>
       <c r="O92" s="21"/>
     </row>
     <row r="93" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="178"/>
-      <c r="B93" s="178"/>
-      <c r="C93" s="178"/>
-      <c r="D93" s="178"/>
-      <c r="E93" s="178"/>
-      <c r="F93" s="178"/>
-      <c r="G93" s="178"/>
-      <c r="H93" s="178"/>
-      <c r="I93" s="178"/>
-      <c r="J93" s="178"/>
-      <c r="K93" s="178"/>
+      <c r="A93" s="160"/>
+      <c r="B93" s="160"/>
+      <c r="C93" s="160"/>
+      <c r="D93" s="160"/>
+      <c r="E93" s="160"/>
+      <c r="F93" s="160"/>
+      <c r="G93" s="160"/>
+      <c r="H93" s="160"/>
+      <c r="I93" s="160"/>
+      <c r="J93" s="160"/>
+      <c r="K93" s="160"/>
       <c r="O93" s="21"/>
     </row>
     <row r="94" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="178"/>
-      <c r="B94" s="178"/>
-      <c r="C94" s="178"/>
-      <c r="D94" s="178"/>
-      <c r="E94" s="178"/>
-      <c r="F94" s="178"/>
-      <c r="G94" s="178"/>
-      <c r="H94" s="178"/>
-      <c r="I94" s="178"/>
-      <c r="J94" s="178"/>
-      <c r="K94" s="178"/>
+      <c r="A94" s="160"/>
+      <c r="B94" s="160"/>
+      <c r="C94" s="160"/>
+      <c r="D94" s="160"/>
+      <c r="E94" s="160"/>
+      <c r="F94" s="160"/>
+      <c r="G94" s="160"/>
+      <c r="H94" s="160"/>
+      <c r="I94" s="160"/>
+      <c r="J94" s="160"/>
+      <c r="K94" s="160"/>
       <c r="O94" s="21"/>
     </row>
     <row r="95" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="178"/>
-      <c r="B95" s="178"/>
-      <c r="C95" s="178"/>
-      <c r="D95" s="178"/>
-      <c r="E95" s="178"/>
-      <c r="F95" s="178"/>
-      <c r="G95" s="178"/>
-      <c r="H95" s="178"/>
-      <c r="I95" s="178"/>
-      <c r="J95" s="178"/>
-      <c r="K95" s="178"/>
+      <c r="A95" s="160"/>
+      <c r="B95" s="160"/>
+      <c r="C95" s="160"/>
+      <c r="D95" s="160"/>
+      <c r="E95" s="160"/>
+      <c r="F95" s="160"/>
+      <c r="G95" s="160"/>
+      <c r="H95" s="160"/>
+      <c r="I95" s="160"/>
+      <c r="J95" s="160"/>
+      <c r="K95" s="160"/>
       <c r="O95" s="21"/>
     </row>
     <row r="96" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="178"/>
-      <c r="B96" s="178"/>
-      <c r="C96" s="178"/>
-      <c r="D96" s="178"/>
-      <c r="E96" s="178"/>
-      <c r="F96" s="178"/>
-      <c r="G96" s="178"/>
-      <c r="H96" s="178"/>
-      <c r="I96" s="178"/>
-      <c r="J96" s="178"/>
-      <c r="K96" s="178"/>
+      <c r="A96" s="160"/>
+      <c r="B96" s="160"/>
+      <c r="C96" s="160"/>
+      <c r="D96" s="160"/>
+      <c r="E96" s="160"/>
+      <c r="F96" s="160"/>
+      <c r="G96" s="160"/>
+      <c r="H96" s="160"/>
+      <c r="I96" s="160"/>
+      <c r="J96" s="160"/>
+      <c r="K96" s="160"/>
       <c r="O96" s="21"/>
     </row>
     <row r="97" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="178"/>
-      <c r="B97" s="178"/>
-      <c r="C97" s="178"/>
-      <c r="D97" s="178"/>
-      <c r="E97" s="178"/>
-      <c r="F97" s="178"/>
-      <c r="G97" s="178"/>
-      <c r="H97" s="178"/>
-      <c r="I97" s="178"/>
-      <c r="J97" s="178"/>
-      <c r="K97" s="178"/>
+      <c r="A97" s="160"/>
+      <c r="B97" s="160"/>
+      <c r="C97" s="160"/>
+      <c r="D97" s="160"/>
+      <c r="E97" s="160"/>
+      <c r="F97" s="160"/>
+      <c r="G97" s="160"/>
+      <c r="H97" s="160"/>
+      <c r="I97" s="160"/>
+      <c r="J97" s="160"/>
+      <c r="K97" s="160"/>
       <c r="O97" s="21"/>
     </row>
     <row r="98" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="178"/>
-      <c r="B98" s="178"/>
-      <c r="C98" s="178"/>
-      <c r="D98" s="178"/>
-      <c r="E98" s="178"/>
-      <c r="F98" s="178"/>
-      <c r="G98" s="178"/>
-      <c r="H98" s="178"/>
-      <c r="I98" s="178"/>
-      <c r="J98" s="178"/>
-      <c r="K98" s="178"/>
+      <c r="A98" s="160"/>
+      <c r="B98" s="160"/>
+      <c r="C98" s="160"/>
+      <c r="D98" s="160"/>
+      <c r="E98" s="160"/>
+      <c r="F98" s="160"/>
+      <c r="G98" s="160"/>
+      <c r="H98" s="160"/>
+      <c r="I98" s="160"/>
+      <c r="J98" s="160"/>
+      <c r="K98" s="160"/>
       <c r="O98" s="21"/>
     </row>
     <row r="99" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="178"/>
-      <c r="B99" s="178"/>
-      <c r="C99" s="178"/>
-      <c r="D99" s="178"/>
-      <c r="E99" s="178"/>
-      <c r="F99" s="178"/>
-      <c r="G99" s="178"/>
-      <c r="H99" s="178"/>
-      <c r="I99" s="178"/>
-      <c r="J99" s="178"/>
-      <c r="K99" s="178"/>
+      <c r="A99" s="160"/>
+      <c r="B99" s="160"/>
+      <c r="C99" s="160"/>
+      <c r="D99" s="160"/>
+      <c r="E99" s="160"/>
+      <c r="F99" s="160"/>
+      <c r="G99" s="160"/>
+      <c r="H99" s="160"/>
+      <c r="I99" s="160"/>
+      <c r="J99" s="160"/>
+      <c r="K99" s="160"/>
       <c r="O99" s="21"/>
     </row>
     <row r="100" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="178"/>
-      <c r="B100" s="178"/>
-      <c r="C100" s="178"/>
-      <c r="D100" s="178"/>
-      <c r="E100" s="178"/>
-      <c r="F100" s="178"/>
-      <c r="G100" s="178"/>
-      <c r="H100" s="178"/>
-      <c r="I100" s="178"/>
-      <c r="J100" s="178"/>
-      <c r="K100" s="178"/>
+      <c r="A100" s="160"/>
+      <c r="B100" s="160"/>
+      <c r="C100" s="160"/>
+      <c r="D100" s="160"/>
+      <c r="E100" s="160"/>
+      <c r="F100" s="160"/>
+      <c r="G100" s="160"/>
+      <c r="H100" s="160"/>
+      <c r="I100" s="160"/>
+      <c r="J100" s="160"/>
+      <c r="K100" s="160"/>
       <c r="O100" s="21"/>
     </row>
     <row r="101" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="178"/>
-      <c r="B101" s="178"/>
-      <c r="C101" s="178"/>
-      <c r="D101" s="178"/>
-      <c r="E101" s="178"/>
-      <c r="F101" s="178"/>
-      <c r="G101" s="178"/>
-      <c r="H101" s="178"/>
-      <c r="I101" s="178"/>
-      <c r="J101" s="178"/>
-      <c r="K101" s="178"/>
+      <c r="A101" s="160"/>
+      <c r="B101" s="160"/>
+      <c r="C101" s="160"/>
+      <c r="D101" s="160"/>
+      <c r="E101" s="160"/>
+      <c r="F101" s="160"/>
+      <c r="G101" s="160"/>
+      <c r="H101" s="160"/>
+      <c r="I101" s="160"/>
+      <c r="J101" s="160"/>
+      <c r="K101" s="160"/>
       <c r="O101" s="21"/>
     </row>
     <row r="102" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="178"/>
-      <c r="B102" s="178"/>
-      <c r="C102" s="178"/>
-      <c r="D102" s="178"/>
-      <c r="E102" s="178"/>
-      <c r="F102" s="178"/>
-      <c r="G102" s="178"/>
-      <c r="H102" s="178"/>
-      <c r="I102" s="178"/>
-      <c r="J102" s="178"/>
-      <c r="K102" s="178"/>
+      <c r="A102" s="160"/>
+      <c r="B102" s="160"/>
+      <c r="C102" s="160"/>
+      <c r="D102" s="160"/>
+      <c r="E102" s="160"/>
+      <c r="F102" s="160"/>
+      <c r="G102" s="160"/>
+      <c r="H102" s="160"/>
+      <c r="I102" s="160"/>
+      <c r="J102" s="160"/>
+      <c r="K102" s="160"/>
       <c r="O102" s="21"/>
     </row>
     <row r="103" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="178"/>
-      <c r="B103" s="178"/>
-      <c r="C103" s="178"/>
-      <c r="D103" s="178"/>
-      <c r="E103" s="178"/>
-      <c r="F103" s="178"/>
-      <c r="G103" s="178"/>
-      <c r="H103" s="178"/>
-      <c r="I103" s="178"/>
-      <c r="J103" s="178"/>
-      <c r="K103" s="178"/>
+      <c r="A103" s="160"/>
+      <c r="B103" s="160"/>
+      <c r="C103" s="160"/>
+      <c r="D103" s="160"/>
+      <c r="E103" s="160"/>
+      <c r="F103" s="160"/>
+      <c r="G103" s="160"/>
+      <c r="H103" s="160"/>
+      <c r="I103" s="160"/>
+      <c r="J103" s="160"/>
+      <c r="K103" s="160"/>
       <c r="O103" s="21"/>
     </row>
     <row r="104" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="178"/>
-      <c r="B104" s="178"/>
-      <c r="C104" s="178"/>
-      <c r="D104" s="178"/>
-      <c r="E104" s="178"/>
-      <c r="F104" s="178"/>
-      <c r="G104" s="178"/>
-      <c r="H104" s="178"/>
-      <c r="I104" s="178"/>
-      <c r="J104" s="178"/>
-      <c r="K104" s="178"/>
+      <c r="A104" s="160"/>
+      <c r="B104" s="160"/>
+      <c r="C104" s="160"/>
+      <c r="D104" s="160"/>
+      <c r="E104" s="160"/>
+      <c r="F104" s="160"/>
+      <c r="G104" s="160"/>
+      <c r="H104" s="160"/>
+      <c r="I104" s="160"/>
+      <c r="J104" s="160"/>
+      <c r="K104" s="160"/>
       <c r="O104" s="21"/>
     </row>
     <row r="105" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="178"/>
-      <c r="B105" s="178"/>
-      <c r="C105" s="178"/>
-      <c r="D105" s="178"/>
-      <c r="E105" s="178"/>
-      <c r="F105" s="178"/>
-      <c r="G105" s="178"/>
-      <c r="H105" s="178"/>
-      <c r="I105" s="178"/>
-      <c r="J105" s="178"/>
-      <c r="K105" s="178"/>
+      <c r="A105" s="160"/>
+      <c r="B105" s="160"/>
+      <c r="C105" s="160"/>
+      <c r="D105" s="160"/>
+      <c r="E105" s="160"/>
+      <c r="F105" s="160"/>
+      <c r="G105" s="160"/>
+      <c r="H105" s="160"/>
+      <c r="I105" s="160"/>
+      <c r="J105" s="160"/>
+      <c r="K105" s="160"/>
       <c r="O105" s="21"/>
     </row>
     <row r="106" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="178"/>
-      <c r="B106" s="178"/>
-      <c r="C106" s="178"/>
-      <c r="D106" s="178"/>
-      <c r="E106" s="178"/>
-      <c r="F106" s="178"/>
-      <c r="G106" s="178"/>
-      <c r="H106" s="178"/>
-      <c r="I106" s="178"/>
-      <c r="J106" s="178"/>
-      <c r="K106" s="178"/>
+      <c r="A106" s="160"/>
+      <c r="B106" s="160"/>
+      <c r="C106" s="160"/>
+      <c r="D106" s="160"/>
+      <c r="E106" s="160"/>
+      <c r="F106" s="160"/>
+      <c r="G106" s="160"/>
+      <c r="H106" s="160"/>
+      <c r="I106" s="160"/>
+      <c r="J106" s="160"/>
+      <c r="K106" s="160"/>
       <c r="O106" s="21"/>
     </row>
     <row r="107" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="178"/>
-      <c r="B107" s="178"/>
-      <c r="C107" s="178"/>
-      <c r="D107" s="178"/>
-      <c r="E107" s="178"/>
-      <c r="F107" s="178"/>
-      <c r="G107" s="178"/>
-      <c r="H107" s="178"/>
-      <c r="I107" s="178"/>
-      <c r="J107" s="178"/>
-      <c r="K107" s="178"/>
+      <c r="A107" s="160"/>
+      <c r="B107" s="160"/>
+      <c r="C107" s="160"/>
+      <c r="D107" s="160"/>
+      <c r="E107" s="160"/>
+      <c r="F107" s="160"/>
+      <c r="G107" s="160"/>
+      <c r="H107" s="160"/>
+      <c r="I107" s="160"/>
+      <c r="J107" s="160"/>
+      <c r="K107" s="160"/>
       <c r="O107" s="21"/>
     </row>
     <row r="108" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="178"/>
-      <c r="B108" s="178"/>
-      <c r="C108" s="178"/>
-      <c r="D108" s="178"/>
-      <c r="E108" s="178"/>
-      <c r="F108" s="178"/>
-      <c r="G108" s="178"/>
-      <c r="H108" s="178"/>
-      <c r="I108" s="178"/>
-      <c r="J108" s="178"/>
-      <c r="K108" s="178"/>
+      <c r="A108" s="160"/>
+      <c r="B108" s="160"/>
+      <c r="C108" s="160"/>
+      <c r="D108" s="160"/>
+      <c r="E108" s="160"/>
+      <c r="F108" s="160"/>
+      <c r="G108" s="160"/>
+      <c r="H108" s="160"/>
+      <c r="I108" s="160"/>
+      <c r="J108" s="160"/>
+      <c r="K108" s="160"/>
       <c r="O108" s="21"/>
     </row>
     <row r="109" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="178"/>
-      <c r="B109" s="178"/>
-      <c r="C109" s="178"/>
-      <c r="D109" s="178"/>
-      <c r="E109" s="178"/>
-      <c r="F109" s="178"/>
-      <c r="G109" s="178"/>
-      <c r="H109" s="178"/>
-      <c r="I109" s="178"/>
-      <c r="J109" s="178"/>
-      <c r="K109" s="178"/>
+      <c r="A109" s="160"/>
+      <c r="B109" s="160"/>
+      <c r="C109" s="160"/>
+      <c r="D109" s="160"/>
+      <c r="E109" s="160"/>
+      <c r="F109" s="160"/>
+      <c r="G109" s="160"/>
+      <c r="H109" s="160"/>
+      <c r="I109" s="160"/>
+      <c r="J109" s="160"/>
+      <c r="K109" s="160"/>
       <c r="O109" s="21"/>
     </row>
     <row r="110" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="178"/>
-      <c r="B110" s="178"/>
-      <c r="C110" s="178"/>
-      <c r="D110" s="178"/>
-      <c r="E110" s="178"/>
-      <c r="F110" s="178"/>
-      <c r="G110" s="178"/>
-      <c r="H110" s="178"/>
-      <c r="I110" s="178"/>
-      <c r="J110" s="178"/>
-      <c r="K110" s="178"/>
+      <c r="A110" s="160"/>
+      <c r="B110" s="160"/>
+      <c r="C110" s="160"/>
+      <c r="D110" s="160"/>
+      <c r="E110" s="160"/>
+      <c r="F110" s="160"/>
+      <c r="G110" s="160"/>
+      <c r="H110" s="160"/>
+      <c r="I110" s="160"/>
+      <c r="J110" s="160"/>
+      <c r="K110" s="160"/>
       <c r="O110" s="21"/>
     </row>
     <row r="111" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="178"/>
-      <c r="B111" s="178"/>
-      <c r="C111" s="178"/>
-      <c r="D111" s="178"/>
-      <c r="E111" s="178"/>
-      <c r="F111" s="178"/>
-      <c r="G111" s="178"/>
-      <c r="H111" s="178"/>
-      <c r="I111" s="178"/>
-      <c r="J111" s="178"/>
-      <c r="K111" s="178"/>
+      <c r="A111" s="160"/>
+      <c r="B111" s="160"/>
+      <c r="C111" s="160"/>
+      <c r="D111" s="160"/>
+      <c r="E111" s="160"/>
+      <c r="F111" s="160"/>
+      <c r="G111" s="160"/>
+      <c r="H111" s="160"/>
+      <c r="I111" s="160"/>
+      <c r="J111" s="160"/>
+      <c r="K111" s="160"/>
       <c r="O111" s="21"/>
     </row>
     <row r="112" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="178"/>
-      <c r="B112" s="178"/>
-      <c r="C112" s="178"/>
-      <c r="D112" s="178"/>
-      <c r="E112" s="178"/>
-      <c r="F112" s="178"/>
-      <c r="G112" s="178"/>
-      <c r="H112" s="178"/>
-      <c r="I112" s="178"/>
-      <c r="J112" s="178"/>
-      <c r="K112" s="178"/>
+      <c r="A112" s="160"/>
+      <c r="B112" s="160"/>
+      <c r="C112" s="160"/>
+      <c r="D112" s="160"/>
+      <c r="E112" s="160"/>
+      <c r="F112" s="160"/>
+      <c r="G112" s="160"/>
+      <c r="H112" s="160"/>
+      <c r="I112" s="160"/>
+      <c r="J112" s="160"/>
+      <c r="K112" s="160"/>
       <c r="O112" s="21"/>
     </row>
     <row r="113" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="178"/>
-      <c r="B113" s="178"/>
-      <c r="C113" s="178"/>
-      <c r="D113" s="178"/>
-      <c r="E113" s="178"/>
-      <c r="F113" s="178"/>
-      <c r="G113" s="178"/>
-      <c r="H113" s="178"/>
-      <c r="I113" s="178"/>
-      <c r="J113" s="178"/>
-      <c r="K113" s="178"/>
+      <c r="A113" s="160"/>
+      <c r="B113" s="160"/>
+      <c r="C113" s="160"/>
+      <c r="D113" s="160"/>
+      <c r="E113" s="160"/>
+      <c r="F113" s="160"/>
+      <c r="G113" s="160"/>
+      <c r="H113" s="160"/>
+      <c r="I113" s="160"/>
+      <c r="J113" s="160"/>
+      <c r="K113" s="160"/>
       <c r="O113" s="21"/>
     </row>
     <row r="114" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="178"/>
-      <c r="B114" s="178"/>
-      <c r="C114" s="178"/>
-      <c r="D114" s="178"/>
-      <c r="E114" s="178"/>
-      <c r="F114" s="178"/>
-      <c r="G114" s="178"/>
-      <c r="H114" s="178"/>
-      <c r="I114" s="178"/>
-      <c r="J114" s="178"/>
-      <c r="K114" s="178"/>
+      <c r="A114" s="160"/>
+      <c r="B114" s="160"/>
+      <c r="C114" s="160"/>
+      <c r="D114" s="160"/>
+      <c r="E114" s="160"/>
+      <c r="F114" s="160"/>
+      <c r="G114" s="160"/>
+      <c r="H114" s="160"/>
+      <c r="I114" s="160"/>
+      <c r="J114" s="160"/>
+      <c r="K114" s="160"/>
       <c r="O114" s="21"/>
     </row>
     <row r="115" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="178"/>
-      <c r="B115" s="178"/>
-      <c r="C115" s="178"/>
-      <c r="D115" s="178"/>
-      <c r="E115" s="178"/>
-      <c r="F115" s="178"/>
-      <c r="G115" s="178"/>
-      <c r="H115" s="178"/>
-      <c r="I115" s="178"/>
-      <c r="J115" s="178"/>
-      <c r="K115" s="178"/>
+      <c r="A115" s="160"/>
+      <c r="B115" s="160"/>
+      <c r="C115" s="160"/>
+      <c r="D115" s="160"/>
+      <c r="E115" s="160"/>
+      <c r="F115" s="160"/>
+      <c r="G115" s="160"/>
+      <c r="H115" s="160"/>
+      <c r="I115" s="160"/>
+      <c r="J115" s="160"/>
+      <c r="K115" s="160"/>
       <c r="O115" s="21"/>
     </row>
     <row r="116" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="178"/>
-      <c r="B116" s="178"/>
-      <c r="C116" s="178"/>
-      <c r="D116" s="178"/>
-      <c r="E116" s="178"/>
-      <c r="F116" s="178"/>
-      <c r="G116" s="178"/>
-      <c r="H116" s="178"/>
-      <c r="I116" s="178"/>
-      <c r="J116" s="178"/>
-      <c r="K116" s="178"/>
+      <c r="A116" s="160"/>
+      <c r="B116" s="160"/>
+      <c r="C116" s="160"/>
+      <c r="D116" s="160"/>
+      <c r="E116" s="160"/>
+      <c r="F116" s="160"/>
+      <c r="G116" s="160"/>
+      <c r="H116" s="160"/>
+      <c r="I116" s="160"/>
+      <c r="J116" s="160"/>
+      <c r="K116" s="160"/>
       <c r="O116" s="21"/>
     </row>
     <row r="117" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="178"/>
-      <c r="B117" s="178"/>
-      <c r="C117" s="178"/>
-      <c r="D117" s="178"/>
-      <c r="E117" s="178"/>
-      <c r="F117" s="178"/>
-      <c r="G117" s="178"/>
-      <c r="H117" s="178"/>
-      <c r="I117" s="178"/>
-      <c r="J117" s="178"/>
-      <c r="K117" s="178"/>
+      <c r="A117" s="160"/>
+      <c r="B117" s="160"/>
+      <c r="C117" s="160"/>
+      <c r="D117" s="160"/>
+      <c r="E117" s="160"/>
+      <c r="F117" s="160"/>
+      <c r="G117" s="160"/>
+      <c r="H117" s="160"/>
+      <c r="I117" s="160"/>
+      <c r="J117" s="160"/>
+      <c r="K117" s="160"/>
       <c r="O117" s="21"/>
     </row>
     <row r="118" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="178"/>
-      <c r="B118" s="178"/>
-      <c r="C118" s="178"/>
-      <c r="D118" s="178"/>
-      <c r="E118" s="178"/>
-      <c r="F118" s="178"/>
-      <c r="G118" s="178"/>
-      <c r="H118" s="178"/>
-      <c r="I118" s="178"/>
-      <c r="J118" s="178"/>
-      <c r="K118" s="178"/>
+      <c r="A118" s="160"/>
+      <c r="B118" s="160"/>
+      <c r="C118" s="160"/>
+      <c r="D118" s="160"/>
+      <c r="E118" s="160"/>
+      <c r="F118" s="160"/>
+      <c r="G118" s="160"/>
+      <c r="H118" s="160"/>
+      <c r="I118" s="160"/>
+      <c r="J118" s="160"/>
+      <c r="K118" s="160"/>
       <c r="O118" s="21"/>
     </row>
     <row r="119" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="178"/>
-      <c r="B119" s="178"/>
-      <c r="C119" s="178"/>
-      <c r="D119" s="178"/>
-      <c r="E119" s="178"/>
-      <c r="F119" s="178"/>
-      <c r="G119" s="178"/>
-      <c r="H119" s="178"/>
-      <c r="I119" s="178"/>
-      <c r="J119" s="178"/>
-      <c r="K119" s="178"/>
+      <c r="A119" s="160"/>
+      <c r="B119" s="160"/>
+      <c r="C119" s="160"/>
+      <c r="D119" s="160"/>
+      <c r="E119" s="160"/>
+      <c r="F119" s="160"/>
+      <c r="G119" s="160"/>
+      <c r="H119" s="160"/>
+      <c r="I119" s="160"/>
+      <c r="J119" s="160"/>
+      <c r="K119" s="160"/>
       <c r="O119" s="21"/>
     </row>
     <row r="120" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="178"/>
-      <c r="B120" s="178"/>
-      <c r="C120" s="178"/>
-      <c r="D120" s="178"/>
-      <c r="E120" s="178"/>
-      <c r="F120" s="178"/>
-      <c r="G120" s="178"/>
-      <c r="H120" s="178"/>
-      <c r="I120" s="178"/>
-      <c r="J120" s="178"/>
-      <c r="K120" s="178"/>
+      <c r="A120" s="160"/>
+      <c r="B120" s="160"/>
+      <c r="C120" s="160"/>
+      <c r="D120" s="160"/>
+      <c r="E120" s="160"/>
+      <c r="F120" s="160"/>
+      <c r="G120" s="160"/>
+      <c r="H120" s="160"/>
+      <c r="I120" s="160"/>
+      <c r="J120" s="160"/>
+      <c r="K120" s="160"/>
       <c r="O120" s="21"/>
     </row>
     <row r="121" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="178"/>
-      <c r="B121" s="178"/>
-      <c r="C121" s="178"/>
-      <c r="D121" s="178"/>
-      <c r="E121" s="178"/>
-      <c r="F121" s="178"/>
-      <c r="G121" s="178"/>
-      <c r="H121" s="178"/>
-      <c r="I121" s="178"/>
-      <c r="J121" s="178"/>
-      <c r="K121" s="178"/>
+      <c r="A121" s="160"/>
+      <c r="B121" s="160"/>
+      <c r="C121" s="160"/>
+      <c r="D121" s="160"/>
+      <c r="E121" s="160"/>
+      <c r="F121" s="160"/>
+      <c r="G121" s="160"/>
+      <c r="H121" s="160"/>
+      <c r="I121" s="160"/>
+      <c r="J121" s="160"/>
+      <c r="K121" s="160"/>
       <c r="O121" s="21"/>
     </row>
     <row r="122" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="178"/>
-      <c r="B122" s="178"/>
-      <c r="C122" s="178"/>
-      <c r="D122" s="178"/>
-      <c r="E122" s="178"/>
-      <c r="F122" s="178"/>
-      <c r="G122" s="178"/>
-      <c r="H122" s="178"/>
-      <c r="I122" s="178"/>
-      <c r="J122" s="178"/>
-      <c r="K122" s="178"/>
+      <c r="A122" s="160"/>
+      <c r="B122" s="160"/>
+      <c r="C122" s="160"/>
+      <c r="D122" s="160"/>
+      <c r="E122" s="160"/>
+      <c r="F122" s="160"/>
+      <c r="G122" s="160"/>
+      <c r="H122" s="160"/>
+      <c r="I122" s="160"/>
+      <c r="J122" s="160"/>
+      <c r="K122" s="160"/>
       <c r="O122" s="21"/>
     </row>
     <row r="123" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="178"/>
-      <c r="B123" s="178"/>
-      <c r="C123" s="178"/>
-      <c r="D123" s="178"/>
-      <c r="E123" s="178"/>
-      <c r="F123" s="178"/>
-      <c r="G123" s="178"/>
-      <c r="H123" s="178"/>
-      <c r="I123" s="178"/>
-      <c r="J123" s="178"/>
-      <c r="K123" s="178"/>
+      <c r="A123" s="160"/>
+      <c r="B123" s="160"/>
+      <c r="C123" s="160"/>
+      <c r="D123" s="160"/>
+      <c r="E123" s="160"/>
+      <c r="F123" s="160"/>
+      <c r="G123" s="160"/>
+      <c r="H123" s="160"/>
+      <c r="I123" s="160"/>
+      <c r="J123" s="160"/>
+      <c r="K123" s="160"/>
       <c r="O123" s="21"/>
     </row>
     <row r="124" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="178"/>
-      <c r="B124" s="178"/>
-      <c r="C124" s="178"/>
-      <c r="D124" s="178"/>
-      <c r="E124" s="178"/>
-      <c r="F124" s="178"/>
-      <c r="G124" s="178"/>
-      <c r="H124" s="178"/>
-      <c r="I124" s="178"/>
-      <c r="J124" s="178"/>
-      <c r="K124" s="178"/>
+      <c r="A124" s="160"/>
+      <c r="B124" s="160"/>
+      <c r="C124" s="160"/>
+      <c r="D124" s="160"/>
+      <c r="E124" s="160"/>
+      <c r="F124" s="160"/>
+      <c r="G124" s="160"/>
+      <c r="H124" s="160"/>
+      <c r="I124" s="160"/>
+      <c r="J124" s="160"/>
+      <c r="K124" s="160"/>
       <c r="O124" s="21"/>
     </row>
     <row r="125" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="178"/>
-      <c r="B125" s="178"/>
-      <c r="C125" s="178"/>
-      <c r="D125" s="178"/>
-      <c r="E125" s="178"/>
-      <c r="F125" s="178"/>
-      <c r="G125" s="178"/>
-      <c r="H125" s="178"/>
-      <c r="I125" s="178"/>
-      <c r="J125" s="178"/>
-      <c r="K125" s="178"/>
+      <c r="A125" s="160"/>
+      <c r="B125" s="160"/>
+      <c r="C125" s="160"/>
+      <c r="D125" s="160"/>
+      <c r="E125" s="160"/>
+      <c r="F125" s="160"/>
+      <c r="G125" s="160"/>
+      <c r="H125" s="160"/>
+      <c r="I125" s="160"/>
+      <c r="J125" s="160"/>
+      <c r="K125" s="160"/>
       <c r="O125" s="21"/>
     </row>
     <row r="126" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="178"/>
-      <c r="B126" s="178"/>
-      <c r="C126" s="178"/>
-      <c r="D126" s="178"/>
-      <c r="E126" s="178"/>
-      <c r="F126" s="178"/>
-      <c r="G126" s="178"/>
-      <c r="H126" s="178"/>
-      <c r="I126" s="178"/>
-      <c r="J126" s="178"/>
-      <c r="K126" s="178"/>
+      <c r="A126" s="160"/>
+      <c r="B126" s="160"/>
+      <c r="C126" s="160"/>
+      <c r="D126" s="160"/>
+      <c r="E126" s="160"/>
+      <c r="F126" s="160"/>
+      <c r="G126" s="160"/>
+      <c r="H126" s="160"/>
+      <c r="I126" s="160"/>
+      <c r="J126" s="160"/>
+      <c r="K126" s="160"/>
       <c r="O126" s="21"/>
     </row>
     <row r="127" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="178"/>
-      <c r="B127" s="178"/>
-      <c r="C127" s="178"/>
-      <c r="D127" s="178"/>
-      <c r="E127" s="178"/>
-      <c r="F127" s="178"/>
-      <c r="G127" s="178"/>
-      <c r="H127" s="178"/>
-      <c r="I127" s="178"/>
-      <c r="J127" s="178"/>
-      <c r="K127" s="178"/>
+      <c r="A127" s="160"/>
+      <c r="B127" s="160"/>
+      <c r="C127" s="160"/>
+      <c r="D127" s="160"/>
+      <c r="E127" s="160"/>
+      <c r="F127" s="160"/>
+      <c r="G127" s="160"/>
+      <c r="H127" s="160"/>
+      <c r="I127" s="160"/>
+      <c r="J127" s="160"/>
+      <c r="K127" s="160"/>
       <c r="O127" s="21"/>
     </row>
     <row r="128" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="178"/>
-      <c r="B128" s="178"/>
-      <c r="C128" s="178"/>
-      <c r="D128" s="178"/>
-      <c r="E128" s="178"/>
-      <c r="F128" s="178"/>
-      <c r="G128" s="178"/>
-      <c r="H128" s="178"/>
-      <c r="I128" s="178"/>
-      <c r="J128" s="178"/>
-      <c r="K128" s="178"/>
+      <c r="A128" s="160"/>
+      <c r="B128" s="160"/>
+      <c r="C128" s="160"/>
+      <c r="D128" s="160"/>
+      <c r="E128" s="160"/>
+      <c r="F128" s="160"/>
+      <c r="G128" s="160"/>
+      <c r="H128" s="160"/>
+      <c r="I128" s="160"/>
+      <c r="J128" s="160"/>
+      <c r="K128" s="160"/>
       <c r="O128" s="21"/>
     </row>
     <row r="129" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="178"/>
-      <c r="B129" s="178"/>
-      <c r="C129" s="178"/>
-      <c r="D129" s="178"/>
-      <c r="E129" s="178"/>
-      <c r="F129" s="178"/>
-      <c r="G129" s="178"/>
-      <c r="H129" s="178"/>
-      <c r="I129" s="178"/>
-      <c r="J129" s="178"/>
-      <c r="K129" s="178"/>
+      <c r="A129" s="160"/>
+      <c r="B129" s="160"/>
+      <c r="C129" s="160"/>
+      <c r="D129" s="160"/>
+      <c r="E129" s="160"/>
+      <c r="F129" s="160"/>
+      <c r="G129" s="160"/>
+      <c r="H129" s="160"/>
+      <c r="I129" s="160"/>
+      <c r="J129" s="160"/>
+      <c r="K129" s="160"/>
       <c r="O129" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="178"/>
-      <c r="B130" s="178"/>
-      <c r="C130" s="178"/>
-      <c r="D130" s="178"/>
-      <c r="E130" s="178"/>
-      <c r="F130" s="178"/>
-      <c r="G130" s="178"/>
-      <c r="H130" s="178"/>
-      <c r="I130" s="178"/>
-      <c r="J130" s="178"/>
-      <c r="K130" s="178"/>
+      <c r="A130" s="160"/>
+      <c r="B130" s="160"/>
+      <c r="C130" s="160"/>
+      <c r="D130" s="160"/>
+      <c r="E130" s="160"/>
+      <c r="F130" s="160"/>
+      <c r="G130" s="160"/>
+      <c r="H130" s="160"/>
+      <c r="I130" s="160"/>
+      <c r="J130" s="160"/>
+      <c r="K130" s="160"/>
       <c r="O130" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="178"/>
-      <c r="B131" s="178"/>
-      <c r="C131" s="178"/>
-      <c r="D131" s="178"/>
-      <c r="E131" s="178"/>
-      <c r="F131" s="178"/>
-      <c r="G131" s="178"/>
-      <c r="H131" s="178"/>
-      <c r="I131" s="178"/>
-      <c r="J131" s="178"/>
-      <c r="K131" s="178"/>
+      <c r="A131" s="160"/>
+      <c r="B131" s="160"/>
+      <c r="C131" s="160"/>
+      <c r="D131" s="160"/>
+      <c r="E131" s="160"/>
+      <c r="F131" s="160"/>
+      <c r="G131" s="160"/>
+      <c r="H131" s="160"/>
+      <c r="I131" s="160"/>
+      <c r="J131" s="160"/>
+      <c r="K131" s="160"/>
       <c r="O131" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="178"/>
-      <c r="B132" s="178"/>
-      <c r="C132" s="178"/>
-      <c r="D132" s="178"/>
-      <c r="E132" s="178"/>
-      <c r="F132" s="178"/>
-      <c r="G132" s="178"/>
-      <c r="H132" s="178"/>
-      <c r="I132" s="178"/>
-      <c r="J132" s="178"/>
-      <c r="K132" s="178"/>
+      <c r="A132" s="160"/>
+      <c r="B132" s="160"/>
+      <c r="C132" s="160"/>
+      <c r="D132" s="160"/>
+      <c r="E132" s="160"/>
+      <c r="F132" s="160"/>
+      <c r="G132" s="160"/>
+      <c r="H132" s="160"/>
+      <c r="I132" s="160"/>
+      <c r="J132" s="160"/>
+      <c r="K132" s="160"/>
       <c r="O132" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="178"/>
-      <c r="B133" s="178"/>
-      <c r="C133" s="178"/>
-      <c r="D133" s="178"/>
-      <c r="E133" s="178"/>
-      <c r="F133" s="178"/>
-      <c r="G133" s="178"/>
-      <c r="H133" s="178"/>
-      <c r="I133" s="178"/>
-      <c r="J133" s="178"/>
-      <c r="K133" s="178"/>
+      <c r="A133" s="160"/>
+      <c r="B133" s="160"/>
+      <c r="C133" s="160"/>
+      <c r="D133" s="160"/>
+      <c r="E133" s="160"/>
+      <c r="F133" s="160"/>
+      <c r="G133" s="160"/>
+      <c r="H133" s="160"/>
+      <c r="I133" s="160"/>
+      <c r="J133" s="160"/>
+      <c r="K133" s="160"/>
       <c r="O133" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A134" s="178"/>
-      <c r="B134" s="178"/>
-      <c r="C134" s="178"/>
-      <c r="D134" s="178"/>
-      <c r="E134" s="178"/>
-      <c r="F134" s="178"/>
-      <c r="G134" s="178"/>
-      <c r="H134" s="178"/>
-      <c r="I134" s="178"/>
-      <c r="J134" s="178"/>
-      <c r="K134" s="178"/>
+      <c r="A134" s="160"/>
+      <c r="B134" s="160"/>
+      <c r="C134" s="160"/>
+      <c r="D134" s="160"/>
+      <c r="E134" s="160"/>
+      <c r="F134" s="160"/>
+      <c r="G134" s="160"/>
+      <c r="H134" s="160"/>
+      <c r="I134" s="160"/>
+      <c r="J134" s="160"/>
+      <c r="K134" s="160"/>
       <c r="O134" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A135" s="178"/>
-      <c r="B135" s="178"/>
-      <c r="C135" s="178"/>
-      <c r="D135" s="178"/>
-      <c r="E135" s="178"/>
-      <c r="F135" s="178"/>
-      <c r="G135" s="178"/>
-      <c r="H135" s="178"/>
-      <c r="I135" s="178"/>
-      <c r="J135" s="178"/>
-      <c r="K135" s="178"/>
+      <c r="A135" s="160"/>
+      <c r="B135" s="160"/>
+      <c r="C135" s="160"/>
+      <c r="D135" s="160"/>
+      <c r="E135" s="160"/>
+      <c r="F135" s="160"/>
+      <c r="G135" s="160"/>
+      <c r="H135" s="160"/>
+      <c r="I135" s="160"/>
+      <c r="J135" s="160"/>
+      <c r="K135" s="160"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A136" s="178"/>
-      <c r="B136" s="178"/>
-      <c r="C136" s="178"/>
-      <c r="D136" s="178"/>
-      <c r="E136" s="178"/>
-      <c r="F136" s="178"/>
-      <c r="G136" s="178"/>
-      <c r="H136" s="178"/>
-      <c r="I136" s="178"/>
-      <c r="J136" s="178"/>
-      <c r="K136" s="178"/>
+      <c r="A136" s="160"/>
+      <c r="B136" s="160"/>
+      <c r="C136" s="160"/>
+      <c r="D136" s="160"/>
+      <c r="E136" s="160"/>
+      <c r="F136" s="160"/>
+      <c r="G136" s="160"/>
+      <c r="H136" s="160"/>
+      <c r="I136" s="160"/>
+      <c r="J136" s="160"/>
+      <c r="K136" s="160"/>
       <c r="O136" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A137" s="178"/>
-      <c r="B137" s="178"/>
-      <c r="C137" s="178"/>
-      <c r="D137" s="178"/>
-      <c r="E137" s="178"/>
-      <c r="F137" s="178"/>
-      <c r="G137" s="178"/>
-      <c r="H137" s="178"/>
-      <c r="I137" s="178"/>
-      <c r="J137" s="178"/>
-      <c r="K137" s="178"/>
+      <c r="A137" s="160"/>
+      <c r="B137" s="160"/>
+      <c r="C137" s="160"/>
+      <c r="D137" s="160"/>
+      <c r="E137" s="160"/>
+      <c r="F137" s="160"/>
+      <c r="G137" s="160"/>
+      <c r="H137" s="160"/>
+      <c r="I137" s="160"/>
+      <c r="J137" s="160"/>
+      <c r="K137" s="160"/>
       <c r="O137" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A138" s="178"/>
-      <c r="B138" s="178"/>
-      <c r="C138" s="178"/>
-      <c r="D138" s="178"/>
-      <c r="E138" s="178"/>
-      <c r="F138" s="178"/>
-      <c r="G138" s="178"/>
-      <c r="H138" s="178"/>
-      <c r="I138" s="178"/>
-      <c r="J138" s="178"/>
-      <c r="K138" s="178"/>
+      <c r="A138" s="160"/>
+      <c r="B138" s="160"/>
+      <c r="C138" s="160"/>
+      <c r="D138" s="160"/>
+      <c r="E138" s="160"/>
+      <c r="F138" s="160"/>
+      <c r="G138" s="160"/>
+      <c r="H138" s="160"/>
+      <c r="I138" s="160"/>
+      <c r="J138" s="160"/>
+      <c r="K138" s="160"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A139" s="178"/>
-      <c r="B139" s="178"/>
-      <c r="C139" s="178"/>
-      <c r="D139" s="178"/>
-      <c r="E139" s="178"/>
-      <c r="F139" s="178"/>
-      <c r="G139" s="178"/>
-      <c r="H139" s="178"/>
-      <c r="I139" s="178"/>
-      <c r="J139" s="178"/>
-      <c r="K139" s="178"/>
+      <c r="A139" s="160"/>
+      <c r="B139" s="160"/>
+      <c r="C139" s="160"/>
+      <c r="D139" s="160"/>
+      <c r="E139" s="160"/>
+      <c r="F139" s="160"/>
+      <c r="G139" s="160"/>
+      <c r="H139" s="160"/>
+      <c r="I139" s="160"/>
+      <c r="J139" s="160"/>
+      <c r="K139" s="160"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A140" s="178"/>
-      <c r="B140" s="178"/>
-      <c r="C140" s="178"/>
-      <c r="D140" s="178"/>
-      <c r="E140" s="178"/>
-      <c r="F140" s="178"/>
-      <c r="G140" s="178"/>
-      <c r="H140" s="178"/>
-      <c r="I140" s="178"/>
-      <c r="J140" s="178"/>
-      <c r="K140" s="178"/>
+      <c r="A140" s="160"/>
+      <c r="B140" s="160"/>
+      <c r="C140" s="160"/>
+      <c r="D140" s="160"/>
+      <c r="E140" s="160"/>
+      <c r="F140" s="160"/>
+      <c r="G140" s="160"/>
+      <c r="H140" s="160"/>
+      <c r="I140" s="160"/>
+      <c r="J140" s="160"/>
+      <c r="K140" s="160"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A141" s="178"/>
-      <c r="B141" s="178"/>
-      <c r="C141" s="178"/>
-      <c r="D141" s="178"/>
-      <c r="E141" s="178"/>
-      <c r="F141" s="178"/>
-      <c r="G141" s="178"/>
-      <c r="H141" s="178"/>
-      <c r="I141" s="178"/>
-      <c r="J141" s="178"/>
-      <c r="K141" s="178"/>
+      <c r="A141" s="160"/>
+      <c r="B141" s="160"/>
+      <c r="C141" s="160"/>
+      <c r="D141" s="160"/>
+      <c r="E141" s="160"/>
+      <c r="F141" s="160"/>
+      <c r="G141" s="160"/>
+      <c r="H141" s="160"/>
+      <c r="I141" s="160"/>
+      <c r="J141" s="160"/>
+      <c r="K141" s="160"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A142" s="178"/>
-      <c r="B142" s="178"/>
-      <c r="C142" s="178"/>
-      <c r="D142" s="178"/>
-      <c r="E142" s="178"/>
-      <c r="F142" s="178"/>
-      <c r="G142" s="178"/>
-      <c r="H142" s="178"/>
-      <c r="I142" s="178"/>
-      <c r="J142" s="178"/>
-      <c r="K142" s="178"/>
+      <c r="A142" s="160"/>
+      <c r="B142" s="160"/>
+      <c r="C142" s="160"/>
+      <c r="D142" s="160"/>
+      <c r="E142" s="160"/>
+      <c r="F142" s="160"/>
+      <c r="G142" s="160"/>
+      <c r="H142" s="160"/>
+      <c r="I142" s="160"/>
+      <c r="J142" s="160"/>
+      <c r="K142" s="160"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A143" s="178"/>
-      <c r="B143" s="178"/>
-      <c r="C143" s="178"/>
-      <c r="D143" s="178"/>
-      <c r="E143" s="178"/>
-      <c r="F143" s="178"/>
-      <c r="G143" s="178"/>
-      <c r="H143" s="178"/>
-      <c r="I143" s="178"/>
-      <c r="J143" s="178"/>
-      <c r="K143" s="178"/>
+      <c r="A143" s="160"/>
+      <c r="B143" s="160"/>
+      <c r="C143" s="160"/>
+      <c r="D143" s="160"/>
+      <c r="E143" s="160"/>
+      <c r="F143" s="160"/>
+      <c r="G143" s="160"/>
+      <c r="H143" s="160"/>
+      <c r="I143" s="160"/>
+      <c r="J143" s="160"/>
+      <c r="K143" s="160"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A144" s="178"/>
-      <c r="B144" s="178"/>
-      <c r="C144" s="178"/>
-      <c r="D144" s="178"/>
-      <c r="E144" s="178"/>
-      <c r="F144" s="178"/>
-      <c r="G144" s="178"/>
-      <c r="H144" s="178"/>
-      <c r="I144" s="178"/>
-      <c r="J144" s="178"/>
-      <c r="K144" s="178"/>
+      <c r="A144" s="160"/>
+      <c r="B144" s="160"/>
+      <c r="C144" s="160"/>
+      <c r="D144" s="160"/>
+      <c r="E144" s="160"/>
+      <c r="F144" s="160"/>
+      <c r="G144" s="160"/>
+      <c r="H144" s="160"/>
+      <c r="I144" s="160"/>
+      <c r="J144" s="160"/>
+      <c r="K144" s="160"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="178"/>
-      <c r="B145" s="178"/>
-      <c r="C145" s="178"/>
-      <c r="D145" s="178"/>
-      <c r="E145" s="178"/>
-      <c r="F145" s="178"/>
-      <c r="G145" s="178"/>
-      <c r="H145" s="178"/>
-      <c r="I145" s="178"/>
-      <c r="J145" s="178"/>
-      <c r="K145" s="178"/>
+      <c r="A145" s="160"/>
+      <c r="B145" s="160"/>
+      <c r="C145" s="160"/>
+      <c r="D145" s="160"/>
+      <c r="E145" s="160"/>
+      <c r="F145" s="160"/>
+      <c r="G145" s="160"/>
+      <c r="H145" s="160"/>
+      <c r="I145" s="160"/>
+      <c r="J145" s="160"/>
+      <c r="K145" s="160"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" s="178"/>
-      <c r="B146" s="178"/>
-      <c r="C146" s="178"/>
-      <c r="D146" s="178"/>
-      <c r="E146" s="178"/>
-      <c r="F146" s="178"/>
-      <c r="G146" s="178"/>
-      <c r="H146" s="178"/>
-      <c r="I146" s="178"/>
-      <c r="J146" s="178"/>
-      <c r="K146" s="178"/>
+      <c r="A146" s="160"/>
+      <c r="B146" s="160"/>
+      <c r="C146" s="160"/>
+      <c r="D146" s="160"/>
+      <c r="E146" s="160"/>
+      <c r="F146" s="160"/>
+      <c r="G146" s="160"/>
+      <c r="H146" s="160"/>
+      <c r="I146" s="160"/>
+      <c r="J146" s="160"/>
+      <c r="K146" s="160"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="178"/>
-      <c r="B147" s="178"/>
-      <c r="C147" s="178"/>
-      <c r="D147" s="178"/>
-      <c r="E147" s="178"/>
-      <c r="F147" s="178"/>
-      <c r="G147" s="178"/>
-      <c r="H147" s="178"/>
-      <c r="I147" s="178"/>
-      <c r="J147" s="178"/>
-      <c r="K147" s="178"/>
+      <c r="A147" s="160"/>
+      <c r="B147" s="160"/>
+      <c r="C147" s="160"/>
+      <c r="D147" s="160"/>
+      <c r="E147" s="160"/>
+      <c r="F147" s="160"/>
+      <c r="G147" s="160"/>
+      <c r="H147" s="160"/>
+      <c r="I147" s="160"/>
+      <c r="J147" s="160"/>
+      <c r="K147" s="160"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="178"/>
-      <c r="B148" s="178"/>
-      <c r="C148" s="178"/>
-      <c r="D148" s="178"/>
-      <c r="E148" s="178"/>
-      <c r="F148" s="178"/>
-      <c r="G148" s="178"/>
-      <c r="H148" s="178"/>
-      <c r="I148" s="178"/>
-      <c r="J148" s="178"/>
-      <c r="K148" s="178"/>
+      <c r="A148" s="160"/>
+      <c r="B148" s="160"/>
+      <c r="C148" s="160"/>
+      <c r="D148" s="160"/>
+      <c r="E148" s="160"/>
+      <c r="F148" s="160"/>
+      <c r="G148" s="160"/>
+      <c r="H148" s="160"/>
+      <c r="I148" s="160"/>
+      <c r="J148" s="160"/>
+      <c r="K148" s="160"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="28" t="s">
@@ -12184,39 +12164,263 @@
     </row>
   </sheetData>
   <mergeCells count="314">
-    <mergeCell ref="G109:G113"/>
-    <mergeCell ref="H109:H113"/>
-    <mergeCell ref="I109:I113"/>
-    <mergeCell ref="J109:J113"/>
-    <mergeCell ref="K109:K113"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="G104:G108"/>
-    <mergeCell ref="H104:H108"/>
-    <mergeCell ref="I104:I108"/>
-    <mergeCell ref="J104:J108"/>
-    <mergeCell ref="K104:K108"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G99:G103"/>
-    <mergeCell ref="H99:H103"/>
-    <mergeCell ref="I99:I103"/>
-    <mergeCell ref="J99:J103"/>
-    <mergeCell ref="K99:K103"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="C1:I2"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="E144:E148"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="F144:F148"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G129:G133"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="G144:G148"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="G119:G123"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="G89:G93"/>
+    <mergeCell ref="G94:G98"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H129:H133"/>
+    <mergeCell ref="H134:H138"/>
+    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="H144:H148"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H124:H128"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="H119:H123"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I129:I133"/>
+    <mergeCell ref="I134:I138"/>
+    <mergeCell ref="I139:I143"/>
+    <mergeCell ref="I144:I148"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="I124:I128"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="I119:I123"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="I84:I88"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J129:J133"/>
+    <mergeCell ref="J134:J138"/>
+    <mergeCell ref="J139:J143"/>
+    <mergeCell ref="J144:J148"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J124:J128"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="J54:J58"/>
+    <mergeCell ref="J119:J123"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="J64:J68"/>
+    <mergeCell ref="J69:J73"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="J114:J118"/>
+    <mergeCell ref="J84:J88"/>
+    <mergeCell ref="J89:J93"/>
+    <mergeCell ref="J94:J98"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="K19:K23"/>
     <mergeCell ref="K129:K133"/>
@@ -12241,263 +12445,39 @@
     <mergeCell ref="K84:K88"/>
     <mergeCell ref="K89:K93"/>
     <mergeCell ref="K94:K98"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="J129:J133"/>
-    <mergeCell ref="J134:J138"/>
-    <mergeCell ref="J139:J143"/>
-    <mergeCell ref="J144:J148"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="J124:J128"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="J44:J48"/>
-    <mergeCell ref="J49:J53"/>
-    <mergeCell ref="J54:J58"/>
-    <mergeCell ref="J119:J123"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="J64:J68"/>
-    <mergeCell ref="J69:J73"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="J114:J118"/>
-    <mergeCell ref="J84:J88"/>
-    <mergeCell ref="J89:J93"/>
-    <mergeCell ref="J94:J98"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I129:I133"/>
-    <mergeCell ref="I134:I138"/>
-    <mergeCell ref="I139:I143"/>
-    <mergeCell ref="I144:I148"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="I124:I128"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="I119:I123"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="I84:I88"/>
-    <mergeCell ref="I89:I93"/>
-    <mergeCell ref="I94:I98"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="H129:H133"/>
-    <mergeCell ref="H134:H138"/>
-    <mergeCell ref="H139:H143"/>
-    <mergeCell ref="H144:H148"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H124:H128"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="H119:H123"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="H89:H93"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G129:G133"/>
-    <mergeCell ref="G134:G138"/>
-    <mergeCell ref="G139:G143"/>
-    <mergeCell ref="G144:G148"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="G124:G128"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="G119:G123"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="G114:G118"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="G89:G93"/>
-    <mergeCell ref="G94:G98"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F129:F133"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="F144:F148"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="E139:E143"/>
-    <mergeCell ref="E144:E148"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="E124:E128"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="C1:I2"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G99:G103"/>
+    <mergeCell ref="H99:H103"/>
+    <mergeCell ref="I99:I103"/>
+    <mergeCell ref="J99:J103"/>
+    <mergeCell ref="K99:K103"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="H104:H108"/>
+    <mergeCell ref="I104:I108"/>
+    <mergeCell ref="J104:J108"/>
+    <mergeCell ref="K104:K108"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="H109:H113"/>
+    <mergeCell ref="I109:I113"/>
+    <mergeCell ref="J109:J113"/>
+    <mergeCell ref="K109:K113"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="F109:F113"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.45" bottom="0.2" header="0.3" footer="0.3"/>
